--- a/Código de cores/tabela alerta cores.xlsx
+++ b/Código de cores/tabela alerta cores.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\andre\Bantec\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade Breno\PROJETO PI\Sixsolution-project\Código de cores\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB30CF1-3CAB-4500-9A45-EF95F9A99350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Germinação</t>
   </si>
@@ -162,16 +163,52 @@
   </si>
   <si>
     <t>Com o conceito de quartis:</t>
+  </si>
+  <si>
+    <t>IDEAL</t>
+  </si>
+  <si>
+    <t>ALERTA: MUITO SECO</t>
+  </si>
+  <si>
+    <t>ALERTA: MUITO UMIDO</t>
+  </si>
+  <si>
+    <t>CRÍTICO</t>
+  </si>
+  <si>
+    <t>CRÍTICO: MUITO ABAIXO</t>
+  </si>
+  <si>
+    <t>ALERTA: MUITO FRIO</t>
+  </si>
+  <si>
+    <t>ALERTA: MUITO QUENTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -215,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -223,47 +260,233 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -545,201 +768,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+      <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D14" s="2" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -759,178 +988,183 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="C19" s="26" t="s">
         <v>36</v>
       </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="C20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>10</v>
+      <c r="D20" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="I20" s="1"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C21" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="10">
         <v>16</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="29">
         <v>18</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="30">
         <v>22.5</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="31">
         <v>27</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="32">
         <v>29</v>
       </c>
       <c r="I21" s="1"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="C22" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="10">
         <v>21</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="29">
         <v>22</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="30">
         <v>22.5</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="31">
         <v>23</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="32">
         <v>24</v>
       </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="C23" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="10">
         <v>14</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="29">
         <v>15</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="30">
         <v>15.5</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="31">
         <v>16</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="32">
         <v>17</v>
       </c>
       <c r="I23" s="1"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="C24" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="10">
         <v>19</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="29">
         <v>21</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="30">
         <v>21.5</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="31">
         <v>22</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="32">
         <v>24</v>
       </c>
       <c r="I24" s="1"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+      <c r="C25" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="10">
         <v>20</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="29">
         <v>21</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="30">
         <v>22</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="31">
         <v>23</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="32">
         <v>24</v>
       </c>
       <c r="I25" s="1"/>
@@ -940,23 +1174,23 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="22">
         <v>21</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="33">
         <v>23</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="34">
         <v>26.5</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="35">
         <v>30</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="36">
         <v>32</v>
       </c>
       <c r="I26" s="1"/>
@@ -966,40 +1200,46 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I27" s="1"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="11"/>
+      <c r="D28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="10"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>10</v>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1008,24 +1248,32 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D30" s="12">
+    <row r="30" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="11"/>
+      <c r="D30" s="17">
         <v>0.6</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="18">
         <v>0.65</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="19">
         <v>0.7</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="20">
         <v>0.75</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="21">
         <v>0.8</v>
       </c>
     </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="C19:H19"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Código de cores/tabela alerta cores.xlsx
+++ b/Código de cores/tabela alerta cores.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Sprint 2\Sixsolution-project\Código de cores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade Breno\PROJETO PI\Sixsolution-project\Código de cores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE072058-A35F-491F-AA6B-89E0C4533548}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A08F87-CAA8-4935-8A82-903D7C0C46F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráficos Gerais" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>Germinação</t>
   </si>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -460,9 +460,6 @@
     <xf numFmtId="9" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,13 +487,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,8 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,22 +771,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3180,7 +3177,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>27</c:v>
@@ -3627,7 +3624,7 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23</c:v>
@@ -4042,7 +4039,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
@@ -4449,7 +4446,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>22</c:v>
@@ -4831,7 +4828,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>23</c:v>
@@ -5212,7 +5209,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>30</c:v>
@@ -5593,8 +5590,8 @@
                 <c:pt idx="1">
                   <c:v>0.65</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7</c:v>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.75</c:v>
@@ -15145,8 +15142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="K88" sqref="J88:K88"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15393,22 +15390,22 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="24" t="s">
+      <c r="F20" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="25" t="s">
         <v>49</v>
       </c>
       <c r="I20" s="1"/>
@@ -15419,22 +15416,22 @@
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>0</v>
       </c>
       <c r="D21" s="10">
         <v>16</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <v>18</v>
       </c>
-      <c r="F21" s="24">
-        <v>22.5</v>
-      </c>
-      <c r="G21" s="25">
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="24">
         <v>27</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>29</v>
       </c>
       <c r="I21" s="1"/>
@@ -15445,22 +15442,22 @@
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>1</v>
       </c>
       <c r="D22" s="10">
         <v>21</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>22</v>
       </c>
-      <c r="F22" s="24">
-        <v>22.5</v>
-      </c>
-      <c r="G22" s="25">
+      <c r="F22" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="24">
         <v>23</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>24</v>
       </c>
       <c r="I22" s="1"/>
@@ -15471,22 +15468,22 @@
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="10">
         <v>14</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>15</v>
       </c>
-      <c r="F23" s="24">
-        <v>15.5</v>
-      </c>
-      <c r="G23" s="25">
+      <c r="F23" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="24">
         <v>16</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>17</v>
       </c>
       <c r="I23" s="1"/>
@@ -15497,22 +15494,22 @@
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="10">
         <v>19</v>
       </c>
-      <c r="E24" s="23">
+      <c r="E24" s="22">
         <v>21</v>
       </c>
-      <c r="F24" s="24">
-        <v>21.5</v>
-      </c>
-      <c r="G24" s="25">
+      <c r="F24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G24" s="24">
         <v>22</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>24</v>
       </c>
       <c r="I24" s="1"/>
@@ -15523,22 +15520,22 @@
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="10">
         <v>20</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="22">
         <v>21</v>
       </c>
-      <c r="F25" s="24">
-        <v>22</v>
-      </c>
-      <c r="G25" s="25">
+      <c r="F25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" s="24">
         <v>23</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>24</v>
       </c>
       <c r="I25" s="1"/>
@@ -15549,22 +15546,22 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>21</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="26">
         <v>23</v>
       </c>
-      <c r="F26" s="28">
-        <v>26.5</v>
-      </c>
-      <c r="G26" s="29">
+      <c r="F26" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="27">
         <v>30</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="28">
         <v>32</v>
       </c>
       <c r="I26" s="1"/>
@@ -15630,13 +15627,13 @@
       <c r="E30" s="15">
         <v>0.65</v>
       </c>
-      <c r="F30" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="G30" s="17">
+      <c r="F30" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="G30" s="16">
         <v>0.75</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="17">
         <v>0.8</v>
       </c>
     </row>
@@ -15658,7 +15655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339AD99C-B030-421F-9356-4F23181C2A23}">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -15668,7 +15665,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
     </row>
@@ -15676,22 +15673,22 @@
       <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="30">
         <v>24</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="30">
         <v>24</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="30">
         <v>24</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="30">
         <v>24</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="30">
         <v>24</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="30">
         <v>24</v>
       </c>
     </row>
@@ -15699,22 +15696,22 @@
       <c r="A4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="30">
         <v>22</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="30">
         <v>22</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="30">
         <v>22</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="30">
         <v>22</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="30">
         <v>22</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="30">
         <v>22</v>
       </c>
     </row>
@@ -15722,22 +15719,22 @@
       <c r="A5" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="30">
         <v>22</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="30">
         <v>23</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="30">
         <v>22</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="30">
         <v>19</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="30">
         <v>21</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="30">
         <v>21.5</v>
       </c>
     </row>
@@ -15745,22 +15742,22 @@
       <c r="A6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="30">
         <v>21</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="30">
         <v>21</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="30">
         <v>21</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="30">
         <v>21</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="30">
         <v>21</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="30">
         <v>21</v>
       </c>
     </row>
@@ -15768,27 +15765,27 @@
       <c r="A7" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="30">
         <v>19</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="30">
         <v>19</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="30">
         <v>19</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="30">
         <v>19</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="30">
         <v>19</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="30">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="29" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15796,22 +15793,22 @@
       <c r="A30" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="30">
         <v>24</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="30">
         <v>24</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="30">
         <v>24</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="30">
         <v>24</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="30">
         <v>24</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="30">
         <v>24</v>
       </c>
     </row>
@@ -15819,22 +15816,22 @@
       <c r="A31" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="30">
         <v>23</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="30">
         <v>23</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="30">
         <v>23</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="30">
         <v>23</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="30">
         <v>23</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="30">
         <v>23</v>
       </c>
     </row>
@@ -15842,22 +15839,22 @@
       <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="30">
         <v>22</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="30">
         <v>22</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="30">
         <v>20</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="30">
         <v>24</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="30">
         <v>23</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="30">
         <v>22</v>
       </c>
     </row>
@@ -15865,22 +15862,22 @@
       <c r="A33" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="30">
         <v>21</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="30">
         <v>21</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="30">
         <v>21</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="30">
         <v>21</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="30">
         <v>21</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="30">
         <v>21</v>
       </c>
     </row>
@@ -15888,27 +15885,27 @@
       <c r="A34" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="30">
         <v>20</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="30">
         <v>20</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="30">
         <v>20</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="30">
         <v>20</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="30">
         <v>20</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="30">
         <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="29" t="s">
         <v>61</v>
       </c>
     </row>
@@ -15916,22 +15913,22 @@
       <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="30">
         <v>32</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="30">
         <v>32</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="30">
         <v>32</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="30">
         <v>32</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="30">
         <v>32</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="30">
         <v>32</v>
       </c>
     </row>
@@ -15939,22 +15936,22 @@
       <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56" s="30">
         <v>30</v>
       </c>
-      <c r="C56" s="38">
+      <c r="C56" s="30">
         <v>30</v>
       </c>
-      <c r="D56" s="38">
+      <c r="D56" s="30">
         <v>30</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="30">
         <v>30</v>
       </c>
-      <c r="F56" s="38">
+      <c r="F56" s="30">
         <v>30</v>
       </c>
-      <c r="G56" s="38">
+      <c r="G56" s="30">
         <v>30</v>
       </c>
     </row>
@@ -15962,22 +15959,22 @@
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="30">
         <v>25</v>
       </c>
-      <c r="C57" s="38">
+      <c r="C57" s="30">
         <v>26</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="30">
         <v>23</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="30">
         <v>24</v>
       </c>
-      <c r="F57" s="38">
+      <c r="F57" s="30">
         <v>24</v>
       </c>
-      <c r="G57" s="38">
+      <c r="G57" s="30">
         <v>28</v>
       </c>
     </row>
@@ -15985,22 +15982,22 @@
       <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58" s="30">
         <v>23</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="30">
         <v>23</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="30">
         <v>23</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="30">
         <v>23</v>
       </c>
-      <c r="F58" s="38">
+      <c r="F58" s="30">
         <v>23</v>
       </c>
-      <c r="G58" s="38">
+      <c r="G58" s="30">
         <v>23</v>
       </c>
     </row>
@@ -16008,22 +16005,22 @@
       <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59" s="30">
         <v>21</v>
       </c>
-      <c r="C59" s="38">
+      <c r="C59" s="30">
         <v>21</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="30">
         <v>21</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="30">
         <v>21</v>
       </c>
-      <c r="F59" s="38">
+      <c r="F59" s="30">
         <v>21</v>
       </c>
-      <c r="G59" s="38">
+      <c r="G59" s="30">
         <v>21</v>
       </c>
     </row>

--- a/Código de cores/tabela alerta cores.xlsx
+++ b/Código de cores/tabela alerta cores.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade Breno\PROJETO PI\Sixsolution-project\Código de cores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Faculdade Breno\sixsolution\Sixsolution-project\Código de cores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A08F87-CAA8-4935-8A82-903D7C0C46F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EDB4F6-EE3F-4EB7-885C-7D2AA654B83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -497,6 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -513,9 +516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15143,7 +15143,7 @@
   <dimension ref="C3:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15374,14 +15374,14 @@
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="1"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -15555,7 +15555,7 @@
       <c r="E26" s="26">
         <v>23</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="31" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="27">
@@ -15581,13 +15581,13 @@
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" s="11"/>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="1"/>
       <c r="J28" s="2"/>
       <c r="K28" s="3"/>
@@ -15627,7 +15627,7 @@
       <c r="E30" s="15">
         <v>0.65</v>
       </c>
-      <c r="F30" s="37" t="s">
+      <c r="F30" s="31" t="s">
         <v>42</v>
       </c>
       <c r="G30" s="16">
